--- a/storage/app/reportes/REPORTE_RECLAMOS.xlsx
+++ b/storage/app/reportes/REPORTE_RECLAMOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\libro-reclamaciones\storage\app\reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FE236F-4F7D-4722-B42F-DA4264F30AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA52294-5AA2-4316-8838-F282C97487CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{704505B5-6DA6-449A-B762-1600063E7FE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{704505B5-6DA6-449A-B762-1600063E7FE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>N°</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>RECLAMOS</t>
+  </si>
+  <si>
+    <t>TELÉFONO</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN</t>
   </si>
 </sst>
 </file>
@@ -218,20 +224,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,52 +564,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F05F297-9310-4B7D-9527-E0B1194EF819}">
-  <dimension ref="A2:N5"/>
+  <dimension ref="A2:P5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="50.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" style="1" customWidth="1"/>
-    <col min="10" max="13" width="20.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="40.7109375" style="1" customWidth="1"/>
+    <col min="12" max="15" width="20.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="7"/>
     </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -620,22 +630,28 @@
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/storage/app/reportes/REPORTE_RECLAMOS.xlsx
+++ b/storage/app/reportes/REPORTE_RECLAMOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\libro-reclamaciones\storage\app\reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA52294-5AA2-4316-8838-F282C97487CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D007E3-A15B-482A-8226-4AFA66946568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{704505B5-6DA6-449A-B762-1600063E7FE8}"/>
   </bookViews>
@@ -76,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +125,25 @@
       <color rgb="FF274481"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
     </font>
   </fonts>
   <fills count="3">
@@ -141,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -180,19 +199,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF274481"/>
@@ -206,11 +212,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -224,23 +231,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -564,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F05F297-9310-4B7D-9527-E0B1194EF819}">
-  <dimension ref="A2:P5"/>
+  <dimension ref="A2:P7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -581,37 +595,40 @@
     <col min="7" max="7" width="30.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="40.7109375" style="1" customWidth="1"/>
-    <col min="12" max="15" width="20.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="40.7109375" style="8" customWidth="1"/>
+    <col min="11" max="12" width="15.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="60.7109375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="90.7109375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="40.7109375" style="8" customWidth="1"/>
+    <col min="17" max="204" width="40.7109375" style="1" customWidth="1"/>
+    <col min="205" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -638,16 +655,34 @@
       <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/storage/app/reportes/REPORTE_RECLAMOS.xlsx
+++ b/storage/app/reportes/REPORTE_RECLAMOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\libro-reclamaciones\storage\app\reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D007E3-A15B-482A-8226-4AFA66946568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2BF82A-F20B-441B-AAC8-1A790615DCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{704505B5-6DA6-449A-B762-1600063E7FE8}"/>
   </bookViews>
@@ -217,7 +217,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -235,22 +235,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -580,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F05F297-9310-4B7D-9527-E0B1194EF819}">
   <dimension ref="A2:P7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -595,34 +592,33 @@
     <col min="7" max="7" width="30.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" style="8" customWidth="1"/>
-    <col min="11" max="12" width="15.7109375" style="8" customWidth="1"/>
-    <col min="13" max="13" width="60.7109375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="90.7109375" style="8" customWidth="1"/>
-    <col min="16" max="16" width="40.7109375" style="8" customWidth="1"/>
-    <col min="17" max="204" width="40.7109375" style="1" customWidth="1"/>
-    <col min="205" max="16384" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="40.7109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="15.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="60.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="90.7109375" style="1" customWidth="1"/>
+    <col min="16" max="28" width="40.7109375" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -658,31 +654,31 @@
       <c r="I5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
